--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Vip-Vipr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Vip-Vipr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,7 +531,7 @@
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -540,10 +540,10 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.119963</v>
+        <v>1.030436666666667</v>
       </c>
       <c r="H2">
-        <v>3.359889</v>
+        <v>3.09131</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -558,28 +558,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.1429513333333333</v>
+        <v>0.027509</v>
       </c>
       <c r="N2">
-        <v>0.428854</v>
+        <v>0.082527</v>
       </c>
       <c r="O2">
-        <v>0.1058099051556342</v>
+        <v>0.003989820149889837</v>
       </c>
       <c r="P2">
-        <v>0.1058099051556342</v>
+        <v>0.003989820149889836</v>
       </c>
       <c r="Q2">
-        <v>0.160100204134</v>
+        <v>0.02834628226333333</v>
       </c>
       <c r="R2">
-        <v>1.440901837206</v>
+        <v>0.25511654037</v>
       </c>
       <c r="S2">
-        <v>0.1058099051556342</v>
+        <v>0.003989820149889837</v>
       </c>
       <c r="T2">
-        <v>0.1058099051556342</v>
+        <v>0.003989820149889836</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,7 +593,7 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,10 +602,10 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.119963</v>
+        <v>1.030436666666667</v>
       </c>
       <c r="H3">
-        <v>3.359889</v>
+        <v>3.09131</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -614,34 +614,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.027509</v>
+        <v>2.705026333333334</v>
       </c>
       <c r="N3">
-        <v>0.082527</v>
+        <v>8.115079000000001</v>
       </c>
       <c r="O3">
-        <v>0.02036164765346488</v>
+        <v>0.3923286404709717</v>
       </c>
       <c r="P3">
-        <v>0.02036164765346487</v>
+        <v>0.3923286404709715</v>
       </c>
       <c r="Q3">
-        <v>0.030809062167</v>
+        <v>2.787358318165556</v>
       </c>
       <c r="R3">
-        <v>0.277281559503</v>
+        <v>25.08622486349001</v>
       </c>
       <c r="S3">
-        <v>0.02036164765346488</v>
+        <v>0.3923286404709717</v>
       </c>
       <c r="T3">
-        <v>0.02036164765346487</v>
+        <v>0.3923286404709715</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,10 +664,10 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.119963</v>
+        <v>1.030436666666667</v>
       </c>
       <c r="H4">
-        <v>3.359889</v>
+        <v>3.09131</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -676,34 +676,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.047884</v>
+        <v>0.146307</v>
       </c>
       <c r="N4">
-        <v>0.143652</v>
+        <v>0.438921</v>
       </c>
       <c r="O4">
-        <v>0.03544284184225206</v>
+        <v>0.02121991408884119</v>
       </c>
       <c r="P4">
-        <v>0.03544284184225206</v>
+        <v>0.02121991408884119</v>
       </c>
       <c r="Q4">
-        <v>0.05362830829200001</v>
+        <v>0.15076009739</v>
       </c>
       <c r="R4">
-        <v>0.482654774628</v>
+        <v>1.35684087651</v>
       </c>
       <c r="S4">
-        <v>0.03544284184225206</v>
+        <v>0.02121991408884119</v>
       </c>
       <c r="T4">
-        <v>0.03544284184225206</v>
+        <v>0.02121991408884119</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,10 +726,10 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.119963</v>
+        <v>1.030436666666667</v>
       </c>
       <c r="H5">
-        <v>3.359889</v>
+        <v>3.09131</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -744,90 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1587963333333333</v>
+        <v>4.015954666666667</v>
       </c>
       <c r="N5">
-        <v>0.4763890000000001</v>
+        <v>12.047864</v>
       </c>
       <c r="O5">
-        <v>0.117538078010669</v>
+        <v>0.5824616252902973</v>
       </c>
       <c r="P5">
-        <v>0.117538078010669</v>
+        <v>0.5824616252902973</v>
       </c>
       <c r="Q5">
-        <v>0.177846017869</v>
+        <v>4.138186940204444</v>
       </c>
       <c r="R5">
-        <v>1.600614160821</v>
+        <v>37.24368246184</v>
       </c>
       <c r="S5">
-        <v>0.117538078010669</v>
+        <v>0.5824616252902973</v>
       </c>
       <c r="T5">
-        <v>0.117538078010669</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1.119963</v>
-      </c>
-      <c r="H6">
-        <v>3.359889</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M6">
-        <v>0.9738796666666668</v>
-      </c>
-      <c r="N6">
-        <v>2.921639</v>
-      </c>
-      <c r="O6">
-        <v>0.7208475273379799</v>
-      </c>
-      <c r="P6">
-        <v>0.7208475273379799</v>
-      </c>
-      <c r="Q6">
-        <v>1.090709193119</v>
-      </c>
-      <c r="R6">
-        <v>9.816382738071002</v>
-      </c>
-      <c r="S6">
-        <v>0.7208475273379799</v>
-      </c>
-      <c r="T6">
-        <v>0.7208475273379799</v>
+        <v>0.5824616252902973</v>
       </c>
     </row>
   </sheetData>
